--- a/requirement.xlsx
+++ b/requirement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test.DESKTOP-HRNGC8O\Desktop\OCI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saivershith.v\Desktop\test-ppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A50B497-C027-4424-B973-7BDE504A3C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F00305-B138-49F6-83F6-1AF302EBE1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{66714999-4271-4B31-AEA1-BC0E2CEA71D8}"/>
+    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8880" xr2:uid="{66714999-4271-4B31-AEA1-BC0E2CEA71D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>vcn</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t xml:space="preserve"> h5-&gt;g14</t>
+  </si>
+  <si>
+    <t>askdmamas</t>
   </si>
 </sst>
 </file>
@@ -473,27 +476,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2B6D35-B045-44E3-8C71-C3E46F39712D}">
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -504,7 +507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -518,20 +521,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
@@ -539,7 +545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -550,7 +556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -558,7 +564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
